--- a/ExcelReports/FakeAddressBook.xlsx
+++ b/ExcelReports/FakeAddressBook.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="2955" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="2760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AddressSignUpData" sheetId="1" r:id="rId1"/>
     <sheet name="AddressData" sheetId="2" r:id="rId2"/>
-    <sheet name="editData" sheetId="3" r:id="rId3"/>
+    <sheet name="ValidateAddressData" sheetId="4" r:id="rId3"/>
+    <sheet name="editData" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A6:I12"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="102">
   <si>
     <t>email</t>
   </si>
@@ -828,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E6" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1303,16 +1303,409 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" customWidth="1"/>
+    <col min="12" max="12" width="35.140625" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="7">
+        <v>12345</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="4">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="4">
+        <v>34556</v>
+      </c>
+      <c r="J3" s="8">
+        <v>36566</v>
+      </c>
+      <c r="K3" s="4">
+        <v>12</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="4">
+        <v>98765</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="4">
+        <v>34</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="4">
+        <v>45</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="10">
+        <v>1233</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="4">
+        <v>87654323</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" s="4">
+        <v>56</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" s="4">
+        <v>7654</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" s="4">
+        <v>12</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="4">
+        <v>9</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" s="4">
+        <v>89</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1"/>
+    <hyperlink ref="L4" r:id="rId2"/>
+    <hyperlink ref="L5" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
+    <hyperlink ref="A2" r:id="rId5"/>
+    <hyperlink ref="A3" r:id="rId6"/>
+    <hyperlink ref="A4" r:id="rId7"/>
+    <hyperlink ref="A5" r:id="rId8"/>
+    <hyperlink ref="A6" r:id="rId9"/>
+    <hyperlink ref="A8" r:id="rId10"/>
+    <hyperlink ref="A7" r:id="rId11"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1379,25 +1772,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1"/>
-    <hyperlink ref="A9" r:id="rId2"/>
-    <hyperlink ref="A2" r:id="rId3"/>
-    <hyperlink ref="A3" r:id="rId4"/>
-    <hyperlink ref="A4" r:id="rId5"/>
-    <hyperlink ref="A5" r:id="rId6"/>
-    <hyperlink ref="A6" r:id="rId7"/>
-    <hyperlink ref="A8" r:id="rId8"/>
-    <hyperlink ref="A7" r:id="rId9"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+    <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A7" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
